--- a/resultados_modelo_oficial.xlsx
+++ b/resultados_modelo_oficial.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -3746,7 +3746,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -3806,7 +3806,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -4136,7 +4136,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -4196,7 +4196,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -4256,7 +4256,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -4316,7 +4316,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -4436,7 +4436,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -4556,7 +4556,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -4586,7 +4586,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -4616,7 +4616,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -4646,7 +4646,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -4691,7 +4691,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -4811,7 +4811,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -4826,7 +4826,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -4901,7 +4901,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -4916,7 +4916,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -4931,7 +4931,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -4946,7 +4946,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -5006,7 +5006,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -5021,7 +5021,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -5051,7 +5051,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -5141,7 +5141,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -5156,7 +5156,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -5186,7 +5186,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -5261,7 +5261,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5306,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -5321,7 +5321,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -5336,7 +5336,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -5381,7 +5381,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -5396,7 +5396,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -5411,7 +5411,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -5426,7 +5426,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -5441,7 +5441,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -5456,7 +5456,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -5546,7 +5546,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -5636,7 +5636,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -5666,7 +5666,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -5726,7 +5726,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -5756,7 +5756,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -5771,7 +5771,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -5801,7 +5801,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -5816,7 +5816,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -5876,7 +5876,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -5891,7 +5891,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -5906,7 +5906,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -5921,7 +5921,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -5951,7 +5951,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -5966,7 +5966,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -5981,7 +5981,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -5996,7 +5996,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -6041,7 +6041,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -6071,7 +6071,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -6086,7 +6086,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -6101,7 +6101,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -6116,7 +6116,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -6146,7 +6146,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -6161,7 +6161,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -6221,7 +6221,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -6236,7 +6236,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -6281,7 +6281,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -6311,7 +6311,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -6341,7 +6341,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -6371,7 +6371,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -6416,7 +6416,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -6446,7 +6446,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -6476,7 +6476,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -6491,7 +6491,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -6506,7 +6506,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -6521,7 +6521,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -6536,7 +6536,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -6581,7 +6581,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -6596,7 +6596,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 0</t>
         </is>
       </c>
     </row>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Cluster 1</t>
+          <t>Cluster 3</t>
         </is>
       </c>
     </row>
@@ -6626,7 +6626,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -6686,7 +6686,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Cluster 0</t>
+          <t>Cluster 2</t>
         </is>
       </c>
     </row>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Cluster 2</t>
+          <t>Cluster 1</t>
         </is>
       </c>
     </row>
